--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>148.2038823333334</v>
+        <v>348.129669</v>
       </c>
       <c r="H2">
-        <v>444.6116470000001</v>
+        <v>1044.389007</v>
       </c>
       <c r="I2">
-        <v>0.4690635672357343</v>
+        <v>0.6448154080547559</v>
       </c>
       <c r="J2">
-        <v>0.4690635672357342</v>
+        <v>0.644815408054756</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N2">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O2">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P2">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q2">
-        <v>20149.14122398691</v>
+        <v>97856.48104855599</v>
       </c>
       <c r="R2">
-        <v>181342.2710158822</v>
+        <v>880708.3294370039</v>
       </c>
       <c r="S2">
-        <v>0.3258903562014418</v>
+        <v>0.534618136724743</v>
       </c>
       <c r="T2">
-        <v>0.3258903562014418</v>
+        <v>0.5346181367247431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>148.2038823333334</v>
+        <v>348.129669</v>
       </c>
       <c r="H3">
-        <v>444.6116470000001</v>
+        <v>1044.389007</v>
       </c>
       <c r="I3">
-        <v>0.4690635672357343</v>
+        <v>0.6448154080547559</v>
       </c>
       <c r="J3">
-        <v>0.4690635672357342</v>
+        <v>0.644815408054756</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.347366</v>
       </c>
       <c r="O3">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P3">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q3">
-        <v>66.56162404131135</v>
+        <v>156.352693200618</v>
       </c>
       <c r="R3">
-        <v>599.0546163718021</v>
+        <v>1407.174238805562</v>
       </c>
       <c r="S3">
-        <v>0.001076561582800661</v>
+        <v>0.0008541997894787702</v>
       </c>
       <c r="T3">
-        <v>0.001076561582800661</v>
+        <v>0.0008541997894787704</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>148.2038823333334</v>
+        <v>348.129669</v>
       </c>
       <c r="H4">
-        <v>444.6116470000001</v>
+        <v>1044.389007</v>
       </c>
       <c r="I4">
-        <v>0.4690635672357343</v>
+        <v>0.6448154080547559</v>
       </c>
       <c r="J4">
-        <v>0.4690635672357342</v>
+        <v>0.644815408054756</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N4">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O4">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P4">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q4">
-        <v>429.2701739163826</v>
+        <v>1550.018456459973</v>
       </c>
       <c r="R4">
-        <v>3863.431565247444</v>
+        <v>13950.16610813976</v>
       </c>
       <c r="S4">
-        <v>0.006942976295075259</v>
+        <v>0.008468197202701486</v>
       </c>
       <c r="T4">
-        <v>0.006942976295075259</v>
+        <v>0.008468197202701489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>148.2038823333334</v>
+        <v>348.129669</v>
       </c>
       <c r="H5">
-        <v>444.6116470000001</v>
+        <v>1044.389007</v>
       </c>
       <c r="I5">
-        <v>0.4690635672357343</v>
+        <v>0.6448154080547559</v>
       </c>
       <c r="J5">
-        <v>0.4690635672357342</v>
+        <v>0.644815408054756</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N5">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O5">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P5">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q5">
-        <v>8356.278102583381</v>
+        <v>18464.1327160922</v>
       </c>
       <c r="R5">
-        <v>75206.50292325042</v>
+        <v>166177.1944448299</v>
       </c>
       <c r="S5">
-        <v>0.1351536731564165</v>
+        <v>0.1008748743378326</v>
       </c>
       <c r="T5">
-        <v>0.1351536731564165</v>
+        <v>0.1008748743378326</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>277.551178</v>
       </c>
       <c r="I6">
-        <v>0.2928154188528495</v>
+        <v>0.1713626578780604</v>
       </c>
       <c r="J6">
-        <v>0.2928154188528494</v>
+        <v>0.1713626578780604</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N6">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O6">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P6">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q6">
-        <v>12578.20824114832</v>
+        <v>26005.80952874908</v>
       </c>
       <c r="R6">
-        <v>113203.8741703349</v>
+        <v>234052.2857587417</v>
       </c>
       <c r="S6">
-        <v>0.2034387827508931</v>
+        <v>0.1420772266210932</v>
       </c>
       <c r="T6">
-        <v>0.2034387827508931</v>
+        <v>0.1420772266210932</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>277.551178</v>
       </c>
       <c r="I7">
-        <v>0.2928154188528495</v>
+        <v>0.1713626578780604</v>
       </c>
       <c r="J7">
-        <v>0.2928154188528494</v>
+        <v>0.1713626578780604</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.347366</v>
       </c>
       <c r="O7">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P7">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q7">
         <v>41.55144672190534</v>
@@ -883,10 +883,10 @@
         <v>373.963020497148</v>
       </c>
       <c r="S7">
-        <v>0.0006720492760637648</v>
+        <v>0.0002270075194473822</v>
       </c>
       <c r="T7">
-        <v>0.0006720492760637645</v>
+        <v>0.0002270075194473822</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>277.551178</v>
       </c>
       <c r="I8">
-        <v>0.2928154188528495</v>
+        <v>0.1713626578780604</v>
       </c>
       <c r="J8">
-        <v>0.2928154188528494</v>
+        <v>0.1713626578780604</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N8">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O8">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P8">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q8">
-        <v>267.9741820860506</v>
+        <v>411.924527765742</v>
       </c>
       <c r="R8">
-        <v>2411.767638774456</v>
+        <v>3707.320749891678</v>
       </c>
       <c r="S8">
-        <v>0.004334189764318553</v>
+        <v>0.002250462321407892</v>
       </c>
       <c r="T8">
-        <v>0.004334189764318552</v>
+        <v>0.002250462321407892</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>277.551178</v>
       </c>
       <c r="I9">
-        <v>0.2928154188528495</v>
+        <v>0.1713626578780604</v>
       </c>
       <c r="J9">
-        <v>0.2928154188528494</v>
+        <v>0.1713626578780604</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N9">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O9">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P9">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q9">
-        <v>5216.450911074809</v>
+        <v>4906.928119456673</v>
       </c>
       <c r="R9">
-        <v>46948.05819967329</v>
+        <v>44162.35307511006</v>
       </c>
       <c r="S9">
-        <v>0.08437039706157404</v>
+        <v>0.02680796141611189</v>
       </c>
       <c r="T9">
-        <v>0.084370397061574</v>
+        <v>0.02680796141611189</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>74.27537266666666</v>
+        <v>98.04896266666667</v>
       </c>
       <c r="H10">
-        <v>222.826118</v>
+        <v>294.146888</v>
       </c>
       <c r="I10">
-        <v>0.2350806923021758</v>
+        <v>0.1816090023377243</v>
       </c>
       <c r="J10">
-        <v>0.2350806923021758</v>
+        <v>0.1816090023377243</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N10">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O10">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P10">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q10">
-        <v>10098.14958800387</v>
+        <v>27560.78355683394</v>
       </c>
       <c r="R10">
-        <v>90883.34629203481</v>
+        <v>248047.0520115054</v>
       </c>
       <c r="S10">
-        <v>0.1633265422891733</v>
+        <v>0.1505724975386893</v>
       </c>
       <c r="T10">
-        <v>0.1633265422891733</v>
+        <v>0.1505724975386893</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>74.27537266666666</v>
+        <v>98.04896266666667</v>
       </c>
       <c r="H11">
-        <v>222.826118</v>
+        <v>294.146888</v>
       </c>
       <c r="I11">
-        <v>0.2350806923021758</v>
+        <v>0.1816090023377243</v>
       </c>
       <c r="J11">
-        <v>0.2350806923021758</v>
+        <v>0.1816090023377243</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.347366</v>
       </c>
       <c r="O11">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P11">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q11">
-        <v>33.35870392279866</v>
+        <v>44.03594621077867</v>
       </c>
       <c r="R11">
-        <v>300.228335305188</v>
+        <v>396.323515897008</v>
       </c>
       <c r="S11">
-        <v>0.0005395406078586306</v>
+        <v>0.000240581055642455</v>
       </c>
       <c r="T11">
-        <v>0.0005395406078586305</v>
+        <v>0.0002405810556424551</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>74.27537266666666</v>
+        <v>98.04896266666667</v>
       </c>
       <c r="H12">
-        <v>222.826118</v>
+        <v>294.146888</v>
       </c>
       <c r="I12">
-        <v>0.2350806923021758</v>
+        <v>0.1816090023377243</v>
       </c>
       <c r="J12">
-        <v>0.2350806923021758</v>
+        <v>0.1816090023377243</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N12">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O12">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P12">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q12">
-        <v>215.1374285230373</v>
+        <v>436.554868209432</v>
       </c>
       <c r="R12">
-        <v>1936.236856707336</v>
+        <v>3928.993813884888</v>
       </c>
       <c r="S12">
-        <v>0.003479612973786181</v>
+        <v>0.002385024964309058</v>
       </c>
       <c r="T12">
-        <v>0.003479612973786181</v>
+        <v>0.002385024964309058</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>74.27537266666666</v>
+        <v>98.04896266666667</v>
       </c>
       <c r="H13">
-        <v>222.826118</v>
+        <v>294.146888</v>
       </c>
       <c r="I13">
-        <v>0.2350806923021758</v>
+        <v>0.1816090023377243</v>
       </c>
       <c r="J13">
-        <v>0.2350806923021758</v>
+        <v>0.1816090023377243</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N13">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O13">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P13">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q13">
-        <v>4187.917754945947</v>
+        <v>5200.329706321306</v>
       </c>
       <c r="R13">
-        <v>37691.25979451352</v>
+        <v>46802.96735689175</v>
       </c>
       <c r="S13">
-        <v>0.06773499643135776</v>
+        <v>0.02841089877908349</v>
       </c>
       <c r="T13">
-        <v>0.06773499643135775</v>
+        <v>0.0284108987790835</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9606106666666667</v>
+        <v>1.194740666666667</v>
       </c>
       <c r="H14">
-        <v>2.881832</v>
+        <v>3.584222</v>
       </c>
       <c r="I14">
-        <v>0.003040321609240458</v>
+        <v>0.002212931729459341</v>
       </c>
       <c r="J14">
-        <v>0.003040321609240458</v>
+        <v>0.002212931729459341</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N14">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O14">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P14">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q14">
-        <v>130.6003572861974</v>
+        <v>335.8320988309842</v>
       </c>
       <c r="R14">
-        <v>1175.403215575776</v>
+        <v>3022.488889478858</v>
       </c>
       <c r="S14">
-        <v>0.002112318161995233</v>
+        <v>0.001834747469003024</v>
       </c>
       <c r="T14">
-        <v>0.002112318161995233</v>
+        <v>0.001834747469003025</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9606106666666667</v>
+        <v>1.194740666666667</v>
       </c>
       <c r="H15">
-        <v>2.881832</v>
+        <v>3.584222</v>
       </c>
       <c r="I15">
-        <v>0.003040321609240458</v>
+        <v>0.002212931729459341</v>
       </c>
       <c r="J15">
-        <v>0.003040321609240458</v>
+        <v>0.002212931729459341</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.347366</v>
       </c>
       <c r="O15">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P15">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q15">
-        <v>0.4314313838346667</v>
+        <v>0.5365843176946667</v>
       </c>
       <c r="R15">
-        <v>3.882882454512</v>
+        <v>4.829258859252</v>
       </c>
       <c r="S15">
-        <v>6.977931505437138E-06</v>
+        <v>2.931514653375872E-06</v>
       </c>
       <c r="T15">
-        <v>6.977931505437137E-06</v>
+        <v>2.931514653375873E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9606106666666667</v>
+        <v>1.194740666666667</v>
       </c>
       <c r="H16">
-        <v>2.881832</v>
+        <v>3.584222</v>
       </c>
       <c r="I16">
-        <v>0.003040321609240458</v>
+        <v>0.002212931729459341</v>
       </c>
       <c r="J16">
-        <v>0.003040321609240458</v>
+        <v>0.002212931729459341</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N16">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O16">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P16">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q16">
-        <v>2.782393426229333</v>
+        <v>5.319483654858</v>
       </c>
       <c r="R16">
-        <v>25.041540836064</v>
+        <v>47.875352893722</v>
       </c>
       <c r="S16">
-        <v>4.500217526327942E-05</v>
+        <v>2.906187111395087E-05</v>
       </c>
       <c r="T16">
-        <v>4.500217526327942E-05</v>
+        <v>2.906187111395088E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9606106666666667</v>
+        <v>1.194740666666667</v>
       </c>
       <c r="H17">
-        <v>2.881832</v>
+        <v>3.584222</v>
       </c>
       <c r="I17">
-        <v>0.003040321609240458</v>
+        <v>0.002212931729459341</v>
       </c>
       <c r="J17">
-        <v>0.003040321609240458</v>
+        <v>0.002212931729459341</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N17">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O17">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P17">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q17">
-        <v>54.16275034496356</v>
+        <v>63.36676300532665</v>
       </c>
       <c r="R17">
-        <v>487.464753104672</v>
+        <v>570.30086704794</v>
       </c>
       <c r="S17">
-        <v>0.0008760233404765084</v>
+        <v>0.0003461908746889894</v>
       </c>
       <c r="T17">
-        <v>0.0008760233404765083</v>
+        <v>0.0003461908746889895</v>
       </c>
     </row>
   </sheetData>
